--- a/StructureDefinition-MedicationKnowledgeMine.xlsx
+++ b/StructureDefinition-MedicationKnowledgeMine.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="151">
   <si>
     <t>Path</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>MedicationKnowledgeMine.cost.source</t>
+  </si>
+  <si>
+    <t>MedicationKnowledgeMine.cost.cost</t>
   </si>
   <si>
     <t xml:space="preserve">Money
@@ -9046,7 +9049,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9069,7 +9072,7 @@
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -9122,7 +9125,7 @@
         <v>37</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>47</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -9218,7 +9221,7 @@
         <v>37</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>38</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -9261,7 +9264,7 @@
         <v>37</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -9314,7 +9317,7 @@
         <v>37</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>38</v>
@@ -9334,7 +9337,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -9410,7 +9413,7 @@
         <v>37</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>38</v>
@@ -9430,7 +9433,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -9506,7 +9509,7 @@
         <v>37</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>38</v>
@@ -9526,7 +9529,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -9549,7 +9552,7 @@
         <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -9602,7 +9605,7 @@
         <v>37</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>38</v>
@@ -9622,7 +9625,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -9698,7 +9701,7 @@
         <v>37</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>38</v>
